--- a/templates/Excel/ST4_Line_setup.xlsx
+++ b/templates/Excel/ST4_Line_setup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,55 +601,35 @@
           <t>SHIFT_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -661,75 +641,47 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
+      <c r="O2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.1</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -744,6 +696,575 @@
       <c r="AE2" t="inlineStr">
         <is>
           <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-04-02 11:58:09</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-04-02 11:58:18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-02 11:59:29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-04-02 11:59:33</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-04-02 11:59:41</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-02 12:01:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-02T12:02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.230</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
